--- a/public/import/data.xlsx
+++ b/public/import/data.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Ahmad Muzayyin</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gadu Barat Ganding Sumenep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gadu Barat</t>
   </si>
 </sst>
 </file>
@@ -49,6 +55,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -70,6 +77,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,17 +148,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H1"/>
+  <dimension ref="B1:J1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -174,6 +183,12 @@
       </c>
       <c r="H1" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
